--- a/北航/学院模板.xlsx
+++ b/北航/学院模板.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(003)自动化科学与电气工程学院</t>
+          <t>(004)能源与动力工程学院</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(003)自动化科学与电气工程学院</t>
+          <t>(005)航空科学与工程学院</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(003)自动化科学与电气工程学院</t>
+          <t>(007)机械工程及自动化学院</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(003)自动化科学与电气工程学院</t>
+          <t>(007)机械工程及自动化学院</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(004)能源与动力工程学院</t>
+          <t>(007)机械工程及自动化学院</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(007)机械工程及自动化学院</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(010)生物与医学工程学院</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(013)交通科学与工程学院</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(015)宇航学院</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(024)中法工程师学院/国际通用工程学院</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(032)航空发动机研究院</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(043)前沿科学技术创新研究院</t>
         </is>
       </c>
     </row>
@@ -608,318 +608,6 @@
         </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>(010)生物与医学工程学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>(013)交通科学与工程学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>(015)宇航学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>(024)中法工程师学院/国际通用工程学院</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>(032)航空发动机研究院</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>(043)前沿科学技术创新研究院</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
         <is>
           <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
         </is>
